--- a/NatmiData/natmiOut_TPM/YoungD7/LR-pairs_lrc2p/Npy-Prlhr.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD7/LR-pairs_lrc2p/Npy-Prlhr.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="24">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -74,9 +74,6 @@
   </si>
   <si>
     <t>Edge total expression derived specificity</t>
-  </si>
-  <si>
-    <t>ECs</t>
   </si>
   <si>
     <t>Resolving-Mac</t>
@@ -446,7 +443,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T7"/>
+  <dimension ref="A1:T3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -519,61 +516,61 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
+        <v>21</v>
+      </c>
+      <c r="C2" t="s">
         <v>22</v>
       </c>
-      <c r="C2" t="s">
+      <c r="D2" t="s">
         <v>23</v>
       </c>
-      <c r="D2" t="s">
-        <v>20</v>
-      </c>
       <c r="E2">
+        <v>2</v>
+      </c>
+      <c r="F2">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G2">
+        <v>0.8592460000000001</v>
+      </c>
+      <c r="H2">
+        <v>2.577738</v>
+      </c>
+      <c r="I2">
         <v>1</v>
       </c>
-      <c r="F2">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="G2">
-        <v>0.672624</v>
-      </c>
-      <c r="H2">
-        <v>2.017872</v>
-      </c>
-      <c r="I2">
-        <v>0.5229110735646243</v>
-      </c>
       <c r="J2">
-        <v>0.5229110735646243</v>
+        <v>1</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L2">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M2">
-        <v>0.01572133333333333</v>
+        <v>0.1099716666666667</v>
       </c>
       <c r="N2">
-        <v>0.047164</v>
+        <v>0.329915</v>
       </c>
       <c r="O2">
-        <v>0.1546228846065581</v>
+        <v>0.9902926318253995</v>
       </c>
       <c r="P2">
-        <v>0.1546228846065582</v>
+        <v>0.9902926318253994</v>
       </c>
       <c r="Q2">
-        <v>0.010574546112</v>
+        <v>0.09449271469666669</v>
       </c>
       <c r="R2">
-        <v>0.095170915008</v>
+        <v>0.85043443227</v>
       </c>
       <c r="S2">
-        <v>0.08085401858727433</v>
+        <v>0.9902926318253995</v>
       </c>
       <c r="T2">
-        <v>0.08085401858727434</v>
+        <v>0.9902926318253994</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -581,31 +578,31 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
+        <v>21</v>
+      </c>
+      <c r="C3" t="s">
         <v>22</v>
       </c>
-      <c r="C3" t="s">
-        <v>23</v>
-      </c>
       <c r="D3" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="E3">
+        <v>2</v>
+      </c>
+      <c r="F3">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G3">
+        <v>0.8592460000000001</v>
+      </c>
+      <c r="H3">
+        <v>2.577738</v>
+      </c>
+      <c r="I3">
         <v>1</v>
       </c>
-      <c r="F3">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="G3">
-        <v>0.672624</v>
-      </c>
-      <c r="H3">
-        <v>2.017872</v>
-      </c>
-      <c r="I3">
-        <v>0.5229110735646243</v>
-      </c>
       <c r="J3">
-        <v>0.5229110735646243</v>
+        <v>1</v>
       </c>
       <c r="K3">
         <v>2</v>
@@ -614,276 +611,28 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="M3">
-        <v>0.085637</v>
+        <v>0.001078</v>
       </c>
       <c r="N3">
-        <v>0.256911</v>
+        <v>0.003234</v>
       </c>
       <c r="O3">
-        <v>0.8422593483834165</v>
+        <v>0.009707368174600554</v>
       </c>
       <c r="P3">
-        <v>0.8422593483834167</v>
+        <v>0.009707368174600554</v>
       </c>
       <c r="Q3">
-        <v>0.057601501488</v>
+        <v>0.000926267188</v>
       </c>
       <c r="R3">
-        <v>0.518413513392</v>
+        <v>0.008336404691999999</v>
       </c>
       <c r="S3">
-        <v>0.4404267400830132</v>
+        <v>0.009707368174600554</v>
       </c>
       <c r="T3">
-        <v>0.4404267400830133</v>
-      </c>
-    </row>
-    <row r="4" spans="1:20">
-      <c r="A4" t="s">
-        <v>20</v>
-      </c>
-      <c r="B4" t="s">
-        <v>22</v>
-      </c>
-      <c r="C4" t="s">
-        <v>23</v>
-      </c>
-      <c r="D4" t="s">
-        <v>21</v>
-      </c>
-      <c r="E4">
-        <v>1</v>
-      </c>
-      <c r="F4">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="G4">
-        <v>0.672624</v>
-      </c>
-      <c r="H4">
-        <v>2.017872</v>
-      </c>
-      <c r="I4">
-        <v>0.5229110735646243</v>
-      </c>
-      <c r="J4">
-        <v>0.5229110735646243</v>
-      </c>
-      <c r="K4">
-        <v>1</v>
-      </c>
-      <c r="L4">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="M4">
-        <v>0.000317</v>
-      </c>
-      <c r="N4">
-        <v>0.000951</v>
-      </c>
-      <c r="O4">
-        <v>0.003117767010025375</v>
-      </c>
-      <c r="P4">
-        <v>0.003117767010025376</v>
-      </c>
-      <c r="Q4">
-        <v>0.000213221808</v>
-      </c>
-      <c r="R4">
-        <v>0.001918996272</v>
-      </c>
-      <c r="S4">
-        <v>0.001630314894336737</v>
-      </c>
-      <c r="T4">
-        <v>0.001630314894336738</v>
-      </c>
-    </row>
-    <row r="5" spans="1:20">
-      <c r="A5" t="s">
-        <v>21</v>
-      </c>
-      <c r="B5" t="s">
-        <v>22</v>
-      </c>
-      <c r="C5" t="s">
-        <v>23</v>
-      </c>
-      <c r="D5" t="s">
-        <v>20</v>
-      </c>
-      <c r="E5">
-        <v>3</v>
-      </c>
-      <c r="F5">
-        <v>1</v>
-      </c>
-      <c r="G5">
-        <v>0.6136826666666667</v>
-      </c>
-      <c r="H5">
-        <v>1.841048</v>
-      </c>
-      <c r="I5">
-        <v>0.4770889264353757</v>
-      </c>
-      <c r="J5">
-        <v>0.4770889264353757</v>
-      </c>
-      <c r="K5">
-        <v>1</v>
-      </c>
-      <c r="L5">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="M5">
-        <v>0.01572133333333333</v>
-      </c>
-      <c r="N5">
-        <v>0.047164</v>
-      </c>
-      <c r="O5">
-        <v>0.1546228846065581</v>
-      </c>
-      <c r="P5">
-        <v>0.1546228846065582</v>
-      </c>
-      <c r="Q5">
-        <v>0.009647909763555557</v>
-      </c>
-      <c r="R5">
-        <v>0.086831187872</v>
-      </c>
-      <c r="S5">
-        <v>0.0737688660192838</v>
-      </c>
-      <c r="T5">
-        <v>0.07376886601928381</v>
-      </c>
-    </row>
-    <row r="6" spans="1:20">
-      <c r="A6" t="s">
-        <v>21</v>
-      </c>
-      <c r="B6" t="s">
-        <v>22</v>
-      </c>
-      <c r="C6" t="s">
-        <v>23</v>
-      </c>
-      <c r="D6" t="s">
-        <v>24</v>
-      </c>
-      <c r="E6">
-        <v>3</v>
-      </c>
-      <c r="F6">
-        <v>1</v>
-      </c>
-      <c r="G6">
-        <v>0.6136826666666667</v>
-      </c>
-      <c r="H6">
-        <v>1.841048</v>
-      </c>
-      <c r="I6">
-        <v>0.4770889264353757</v>
-      </c>
-      <c r="J6">
-        <v>0.4770889264353757</v>
-      </c>
-      <c r="K6">
-        <v>2</v>
-      </c>
-      <c r="L6">
-        <v>0.6666666666666666</v>
-      </c>
-      <c r="M6">
-        <v>0.085637</v>
-      </c>
-      <c r="N6">
-        <v>0.256911</v>
-      </c>
-      <c r="O6">
-        <v>0.8422593483834165</v>
-      </c>
-      <c r="P6">
-        <v>0.8422593483834167</v>
-      </c>
-      <c r="Q6">
-        <v>0.05255394252533334</v>
-      </c>
-      <c r="R6">
-        <v>0.4729854827280001</v>
-      </c>
-      <c r="S6">
-        <v>0.4018326083004033</v>
-      </c>
-      <c r="T6">
-        <v>0.4018326083004033</v>
-      </c>
-    </row>
-    <row r="7" spans="1:20">
-      <c r="A7" t="s">
-        <v>21</v>
-      </c>
-      <c r="B7" t="s">
-        <v>22</v>
-      </c>
-      <c r="C7" t="s">
-        <v>23</v>
-      </c>
-      <c r="D7" t="s">
-        <v>21</v>
-      </c>
-      <c r="E7">
-        <v>3</v>
-      </c>
-      <c r="F7">
-        <v>1</v>
-      </c>
-      <c r="G7">
-        <v>0.6136826666666667</v>
-      </c>
-      <c r="H7">
-        <v>1.841048</v>
-      </c>
-      <c r="I7">
-        <v>0.4770889264353757</v>
-      </c>
-      <c r="J7">
-        <v>0.4770889264353757</v>
-      </c>
-      <c r="K7">
-        <v>1</v>
-      </c>
-      <c r="L7">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="M7">
-        <v>0.000317</v>
-      </c>
-      <c r="N7">
-        <v>0.000951</v>
-      </c>
-      <c r="O7">
-        <v>0.003117767010025375</v>
-      </c>
-      <c r="P7">
-        <v>0.003117767010025376</v>
-      </c>
-      <c r="Q7">
-        <v>0.0001945374053333334</v>
-      </c>
-      <c r="R7">
-        <v>0.001750836648</v>
-      </c>
-      <c r="S7">
-        <v>0.001487452115688637</v>
-      </c>
-      <c r="T7">
-        <v>0.001487452115688638</v>
+        <v>0.009707368174600554</v>
       </c>
     </row>
   </sheetData>
